--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Table 1</t>
   </si>
@@ -31,7 +38,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -45,7 +52,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -59,7 +66,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -73,7 +80,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -87,7 +94,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -101,7 +108,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -115,7 +122,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -129,7 +136,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -143,7 +150,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -157,7 +164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -171,7 +178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -185,7 +192,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -199,7 +206,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -213,7 +220,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -227,7 +234,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -241,7 +248,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -255,7 +262,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -269,7 +276,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -286,7 +293,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -300,7 +307,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -314,7 +321,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica"/>
@@ -322,15 +329,18 @@
       <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0444411002_CRIMP_HOUSINGS.xml</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">heat sink </t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/7-340-2PP-BA/294-1080-ND/272718</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -347,19 +357,34 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +403,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -402,63 +433,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -650,7 +771,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -659,7 +780,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -668,7 +789,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -677,7 +798,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -686,7 +807,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -695,7 +816,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -807,8 +928,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -816,14 +937,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -842,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +971,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -878,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,9 +1220,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1117,7 +1244,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1136,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,9 +1510,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1398,7 +1531,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1417,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1580,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1603,7 +1736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1655,7 +1788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,472 +1801,499 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I24"/>
+  <dimension ref="A1:IV25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6016" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.05469" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.3438" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05469" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.05469" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.05469" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.05469" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="1" customWidth="1"/>
+    <col min="4" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" t="s" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" t="s" s="4">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" ht="18.55" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.5" customHeight="1">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" t="s" s="4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" t="s" s="4">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="4">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" t="s" s="4">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" t="s" s="4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="4">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="C18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" t="s" s="4">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" t="s" s="4">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" ht="32.35" customHeight="1">
-      <c r="A21" t="s" s="4">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" t="s" s="4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" t="s" s="4">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="4">
         <v>6</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" ht="20.35" customHeight="1">
-      <c r="A24" t="s" s="4">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="C9" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="C10" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="C11" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="C12" r:id="rId10" location="" tooltip="" display=""/>
-    <hyperlink ref="C13" r:id="rId11" location="" tooltip="" display=""/>
-    <hyperlink ref="C14" r:id="rId12" location="" tooltip="" display=""/>
-    <hyperlink ref="C15" r:id="rId13" location="" tooltip="" display=""/>
-    <hyperlink ref="C16" r:id="rId14" location="" tooltip="" display=""/>
-    <hyperlink ref="C17" r:id="rId15" location="" tooltip="" display=""/>
-    <hyperlink ref="C18" r:id="rId16" location="" tooltip="" display=""/>
-    <hyperlink ref="C19" r:id="rId17" location="" tooltip="" display=""/>
-    <hyperlink ref="C20" r:id="rId18" location="" tooltip="" display=""/>
-    <hyperlink ref="C22" r:id="rId19" location="" tooltip="" display=""/>
-    <hyperlink ref="C23" r:id="rId20" location="" tooltip="" display=""/>
-    <hyperlink ref="C24" r:id="rId21" location="" tooltip="" display=""/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C14" r:id="rId12"/>
+    <hyperlink ref="C15" r:id="rId13"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C19" r:id="rId17"/>
+    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="1160" yWindow="4380" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Table 1</t>
   </si>
@@ -120,6 +120,9 @@
     <t>Sabre 43160</t>
   </si>
   <si>
+    <t>Cgrid 0553</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -127,11 +130,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0431601102_PCB_HEADERS.xml</t>
+      <t>http://www.digikey.com/product-search/en?mpart=0705530001&amp;vendor=900</t>
     </r>
   </si>
   <si>
-    <t>Cgrid 0553</t>
+    <t>Mini FIt jr 5566</t>
   </si>
   <si>
     <r>
@@ -141,11 +144,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-search/en?mpart=0705530001&amp;vendor=900</t>
+      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0469990126_PCB_HEADERS.xml</t>
     </r>
   </si>
   <si>
-    <t>Mini FIt jr 5566</t>
+    <t>Fuse 2A</t>
   </si>
   <si>
     <r>
@@ -155,11 +158,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0469990126_PCB_HEADERS.xml</t>
+      <t>http://www.digikey.com/product-detail/en/39612000440/WK4457BK-ND/245408</t>
     </r>
   </si>
   <si>
-    <t>Fuse 3A</t>
+    <t>Fuse 4A</t>
   </si>
   <si>
     <r>
@@ -169,11 +172,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/39213150000/F5504CT-ND/3306894</t>
+      <t>http://www.digikey.com/product-detail/en/39214000000/F5505CT-ND/3306895</t>
     </r>
   </si>
   <si>
-    <t>Fuse 2A</t>
+    <t>Fuse 5A</t>
   </si>
   <si>
     <r>
@@ -183,11 +186,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/39612000440/WK4457BK-ND/245408</t>
+      <t>http://www.digikey.com/product-detail/en/39615000000/WK6280CT-ND/3307368</t>
     </r>
   </si>
   <si>
-    <t>Fuse 4A</t>
+    <t>Fuse 15a</t>
   </si>
   <si>
     <r>
@@ -197,11 +200,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/39214000000/F5505CT-ND/3306895</t>
+      <t>http://www.littelfuse.com/products/fuses/cartridge-fuses/5x20mm-fuses/215/215015.aspx</t>
     </r>
   </si>
   <si>
-    <t>Fuse 5A</t>
+    <t>Fuse 15a holder</t>
   </si>
   <si>
     <r>
@@ -211,11 +214,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/39615000000/WK6280CT-ND/3307368</t>
+      <t>http://www.digikey.com/product-detail/en/65600001009/WK6245-ND/653441</t>
     </r>
   </si>
   <si>
-    <t>Fuse 15a</t>
+    <t xml:space="preserve">LED </t>
   </si>
   <si>
     <r>
@@ -225,11 +228,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.littelfuse.com/products/fuses/cartridge-fuses/5x20mm-fuses/215/215015.aspx</t>
+      <t>http://www.digikey.com/product-detail/en/LTW-2S3D8/160-1850-ND/2666499</t>
     </r>
   </si>
   <si>
-    <t>Fuse 15a holder</t>
+    <t>r1206 250</t>
   </si>
   <si>
     <r>
@@ -239,11 +242,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/65600001009/WK6245-ND/653441</t>
+      <t>http://www.digikey.com/product-detail/en/Y1630250R000T9R/Y1630-250BCT-ND/4340638</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">LED </t>
+    <t>r1206 1200</t>
   </si>
   <si>
     <r>
@@ -253,11 +256,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/LTW-2S3D8/160-1850-ND/2666499</t>
+      <t>http://www.digikey.com/product-detail/en/ERJ-8GEYJ122V/P1.2KECT-ND/203260</t>
     </r>
   </si>
   <si>
-    <t>r1206 250</t>
+    <t>Following is Not on board</t>
+  </si>
+  <si>
+    <t>Cgrid - plug</t>
   </si>
   <si>
     <r>
@@ -267,11 +273,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/Y1630250R000T9R/Y1630-250BCT-ND/4340638</t>
+      <t>http://www.digikey.com/product-detail/en/0050579202/WM5363-ND/2731427</t>
     </r>
   </si>
   <si>
-    <t>r1206 1200</t>
+    <t>Fit jr - plug</t>
   </si>
   <si>
     <r>
@@ -281,14 +287,11 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/ERJ-8GEYJ122V/P1.2KECT-ND/203260</t>
+      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0039012020_CRIMP_HOUSINGS.xml</t>
     </r>
   </si>
   <si>
-    <t>Following is Not on board</t>
-  </si>
-  <si>
-    <t>Cgrid - plug</t>
+    <t>Sabre - plug</t>
   </si>
   <si>
     <r>
@@ -298,11 +301,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.digikey.com/product-detail/en/0050579202/WM5363-ND/2731427</t>
+      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0444411002_CRIMP_HOUSINGS.xml</t>
     </r>
   </si>
   <si>
-    <t>Fit jr - plug</t>
+    <t xml:space="preserve">heat sink </t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/7-340-2PP-BA/294-1080-ND/272718</t>
   </si>
   <si>
     <r>
@@ -312,28 +318,9 @@
         <color indexed="8"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0039012020_CRIMP_HOUSINGS.xml</t>
+      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0431601102_PCB_HEADERS.xml</t>
     </r>
-  </si>
-  <si>
-    <t>Sabre - plug</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0444411002_CRIMP_HOUSINGS.xml</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">heat sink </t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/7-340-2PP-BA/294-1080-ND/272718</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,16 +476,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1823,13 +1810,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV25"/>
+  <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
@@ -1841,17 +1828,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="20.5" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -1980,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1991,13 +1978,13 @@
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -2008,13 +1995,13 @@
     </row>
     <row r="11" spans="1:9" ht="18.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2025,13 +2012,13 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2042,13 +2029,13 @@
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2059,13 +2046,13 @@
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2076,13 +2063,13 @@
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2093,13 +2080,13 @@
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2110,13 +2097,13 @@
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2127,13 +2114,13 @@
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2144,13 +2131,13 @@
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2160,14 +2147,14 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2176,16 +2163,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>48</v>
-      </c>
+    <row r="21" spans="1:9" ht="32.25" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2193,12 +2176,16 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="32.25" customHeight="1">
+    <row r="22" spans="1:9" ht="20.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2208,13 +2195,13 @@
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="4">
-        <v>5</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2225,37 +2212,20 @@
     </row>
     <row r="24" spans="1:9" ht="20.25" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="4">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2280,10 +2250,9 @@
     <hyperlink ref="C17" r:id="rId15"/>
     <hyperlink ref="C18" r:id="rId16"/>
     <hyperlink ref="C19" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C22" r:id="rId18"/>
     <hyperlink ref="C23" r:id="rId19"/>
     <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C25" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="4380" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="14380" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Table 1</t>
   </si>
@@ -36,85 +36,19 @@
     <t>TVS DIO 5v</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/SMAJ5.0A/SMAJ5.0ABCT-ND/2254241</t>
-    </r>
-  </si>
-  <si>
     <t>TVS DIO 12v</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/SMAJ12CA/SMAJ12CABCT-ND/2254233</t>
-    </r>
-  </si>
-  <si>
     <t>Cap 220uF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/EEE-1CA221XP/PCE3885CT-ND/766261</t>
-    </r>
-  </si>
-  <si>
     <t>Cap 10uF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/CL21A106KOQNNNE/1276-1096-1-ND/3889182</t>
-    </r>
-  </si>
-  <si>
     <t>Cap 0.2uF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/LMK105BJ224KV-F/587-1228-1-ND/931005</t>
-    </r>
-  </si>
-  <si>
     <t>Regulator 5V</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/MIC29500-5.0WT/576-1143-ND/771612</t>
-    </r>
   </si>
   <si>
     <t>Sabre 43160</t>
@@ -137,17 +71,6 @@
     <t>Mini FIt jr 5566</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0469990126_PCB_HEADERS.xml</t>
-    </r>
-  </si>
-  <si>
     <t>Fuse 2A</t>
   </si>
   <si>
@@ -193,17 +116,6 @@
     <t>Fuse 15a</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.littelfuse.com/products/fuses/cartridge-fuses/5x20mm-fuses/215/215015.aspx</t>
-    </r>
-  </si>
-  <si>
     <t>Fuse 15a holder</t>
   </si>
   <si>
@@ -266,29 +178,7 @@
     <t>Cgrid - plug</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.digikey.com/product-detail/en/0050579202/WM5363-ND/2731427</t>
-    </r>
-  </si>
-  <si>
     <t>Fit jr - plug</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0039012020_CRIMP_HOUSINGS.xml</t>
-    </r>
   </si>
   <si>
     <t>Sabre - plug</t>
@@ -306,9 +196,6 @@
   </si>
   <si>
     <t xml:space="preserve">heat sink </t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/7-340-2PP-BA/294-1080-ND/272718</t>
   </si>
   <si>
     <r>
@@ -322,12 +209,144 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>7+3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.digikey.com/product-detail/en/EEE-1CA221XP/PCE3885CT-ND/766261</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5+5 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+7</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/C1206C224K5RACTU/399-1251-1-ND/411526</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6+4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5+5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/15-38-8020/WM4585-ND/505815</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.molex.com/molex/products/datasheet.jsp?part=active/0039012020_CRIMP_HOUSINGS.xml</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/39-29-9026/WM3864-ND/2002670</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.digikey.com/product-detail/en/SMAJ5.0A/SMAJ5.0ABCT-ND/2254241</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.digikey.com/product-detail/en/SMAJ12CA/SMAJ12CABCT-ND/2254233</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/TMK316F106ZL-T/587-1353-1-ND/931130</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.digikey.com/product-detail/en/MIC29500-5.0WT/576-1143-ND/771612</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.littelfuse.com/products/fuses/cartridge-fuses/5x20mm-fuses/215/215015.aspx</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/7-340-2PP-BA/294-1080-ND/272718</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -368,6 +387,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -449,12 +474,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -488,9 +516,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1812,17 +1847,17 @@
   </sheetPr>
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="64.375" style="1" customWidth="1"/>
     <col min="4" max="256" width="9" style="1" customWidth="1"/>
   </cols>
@@ -1861,11 +1896,11 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1876,13 +1911,13 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1893,13 +1928,13 @@
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1910,13 +1945,13 @@
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1927,13 +1962,13 @@
     </row>
     <row r="7" spans="1:9" ht="20.25" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1944,13 +1979,13 @@
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1961,13 +1996,13 @@
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1978,13 +2013,13 @@
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1995,13 +2030,13 @@
     </row>
     <row r="11" spans="1:9" ht="18.5" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -2012,13 +2047,13 @@
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -2029,13 +2064,13 @@
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2046,13 +2081,13 @@
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2063,13 +2098,13 @@
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2080,13 +2115,13 @@
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2097,13 +2132,13 @@
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2114,13 +2149,13 @@
     </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -2131,13 +2166,13 @@
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2148,13 +2183,13 @@
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -2165,7 +2200,7 @@
     </row>
     <row r="21" spans="1:9" ht="32.25" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2178,13 +2213,13 @@
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -2195,13 +2230,13 @@
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -2212,13 +2247,13 @@
     </row>
     <row r="24" spans="1:9" ht="20.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -2236,8 +2271,8 @@
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://www.digikey.com/product-detail/en/CL21A106KOQNNNE/1276-1096-1-ND/3889182"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://www.digikey.com/product-detail/en/LMK105BJ224KV-F/587-1228-1-ND/931005"/>
     <hyperlink ref="C8" r:id="rId6"/>
     <hyperlink ref="C9" r:id="rId7"/>
     <hyperlink ref="C10" r:id="rId8"/>
